--- a/osbulkparts_system/src/main/resources/template/order/orderPlanTemp.xlsx
+++ b/osbulkparts_system/src/main/resources/template/order/orderPlanTemp.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="7785"/>
+    <workbookView windowWidth="19935" windowHeight="7785" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="按月导入模板" sheetId="3" r:id="rId1"/>
     <sheet name="按周导入模板" sheetId="4" r:id="rId2"/>
+    <sheet name="按年导入模板" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -59,8 +60,30 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>session</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>数据实例，请参考实例数据制作导入数据</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
   <si>
     <t>订单型号</t>
   </si>
@@ -120,6 +143,72 @@
   </si>
   <si>
     <t>数量</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>1月</t>
+  </si>
+  <si>
+    <t>2月</t>
+  </si>
+  <si>
+    <t>3月</t>
+  </si>
+  <si>
+    <t>4月</t>
+  </si>
+  <si>
+    <t>5月</t>
+  </si>
+  <si>
+    <t>数量5</t>
+  </si>
+  <si>
+    <t>6月</t>
+  </si>
+  <si>
+    <t>数量6</t>
+  </si>
+  <si>
+    <t>7月</t>
+  </si>
+  <si>
+    <t>数量7</t>
+  </si>
+  <si>
+    <t>8月</t>
+  </si>
+  <si>
+    <t>数量8</t>
+  </si>
+  <si>
+    <t>9月</t>
+  </si>
+  <si>
+    <t>数量9</t>
+  </si>
+  <si>
+    <t>10月</t>
+  </si>
+  <si>
+    <t>数量10</t>
+  </si>
+  <si>
+    <t>11月</t>
+  </si>
+  <si>
+    <t>数量11</t>
+  </si>
+  <si>
+    <t>12月</t>
+  </si>
+  <si>
+    <t>数量12</t>
+  </si>
+  <si>
+    <t>标准</t>
   </si>
 </sst>
 </file>
@@ -129,8 +218,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -142,6 +231,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -161,40 +258,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -206,30 +288,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,40 +339,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,6 +355,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -338,31 +427,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,151 +607,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,29 +658,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,6 +680,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -622,15 +735,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,21 +753,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -672,10 +761,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -684,133 +773,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
@@ -821,28 +910,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1194,93 +1283,93 @@
   <sheetPr/>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="8.83333333333333" style="1"/>
-    <col min="2" max="2" width="18.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.83333333333333" style="1"/>
+    <col min="1" max="1" width="8.83333333333333" style="2"/>
+    <col min="2" max="2" width="18.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.83333333333333" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" spans="1:11">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:11">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="7">
-        <v>10</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="8">
+        <v>10</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="7">
-        <v>10</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="8">
+        <v>10</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="7">
-        <v>10</v>
-      </c>
-      <c r="J2" s="6" t="s">
+      <c r="I2" s="8">
+        <v>10</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="8">
         <v>10</v>
       </c>
     </row>
@@ -1302,45 +1391,265 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8.83333333333333" style="1"/>
-    <col min="2" max="2" width="18.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.83333333333333" style="1"/>
+    <col min="1" max="1" width="8.83333333333333" style="2"/>
+    <col min="2" max="2" width="18.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.83333333333333" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="D2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="8">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AB2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="8.83333333333333" style="2"/>
+    <col min="2" max="2" width="18.625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="10.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="11.5" style="2" customWidth="1"/>
+    <col min="14" max="14" width="9.625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="11.5" style="2" customWidth="1"/>
+    <col min="16" max="16" width="9.625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="11.5" style="2" customWidth="1"/>
+    <col min="18" max="18" width="9.625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="11.5" style="2" customWidth="1"/>
+    <col min="20" max="20" width="9.625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="11.5" style="2" customWidth="1"/>
+    <col min="22" max="22" width="9.625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="11.5" style="2" customWidth="1"/>
+    <col min="24" max="24" width="9.625" style="2" customWidth="1"/>
+    <col min="25" max="25" width="11.5" style="2" customWidth="1"/>
+    <col min="26" max="26" width="9.625" style="2" customWidth="1"/>
+    <col min="27" max="27" width="11.5" style="2" customWidth="1"/>
+    <col min="28" max="28" width="9.625" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="8.83333333333333" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:28">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="A2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="D2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="7">
+      <c r="F2" s="8">
+        <v>10</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="8">
+        <v>10</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="8">
+        <v>10</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="8">
+        <v>10</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="8">
+        <v>10</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="8">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="8">
+        <v>10</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="T2" s="8">
+        <v>10</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="V2" s="8">
+        <v>10</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="X2" s="8">
+        <v>10</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z2" s="8">
+        <v>10</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB2" s="8">
         <v>10</v>
       </c>
     </row>
